--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43359,6 +43359,41 @@
         <v>357600</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>233100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43394,6 +43394,41 @@
         <v>233100</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>234400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43429,6 +43429,41 @@
         <v>234400</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>734800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43464,6 +43464,41 @@
         <v>734800</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>169000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43499,6 +43499,41 @@
         <v>169000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>508600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43534,6 +43534,41 @@
         <v>508600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>381300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43569,6 +43569,41 @@
         <v>381300</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>290700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43604,6 +43604,41 @@
         <v>290700</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>416200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43639,6 +43639,41 @@
         <v>416200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>273500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43674,6 +43674,41 @@
         <v>273500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>133800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43709,6 +43709,41 @@
         <v>133800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>41000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43744,6 +43744,41 @@
         <v>41000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>75600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43779,6 +43779,76 @@
         <v>75600</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>37600</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>78700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43849,6 +43849,76 @@
         <v>78700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>203400</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>76600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43919,6 +43919,41 @@
         <v>76600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>243100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43954,6 +43954,41 @@
         <v>243100</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>55000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43989,6 +43989,41 @@
         <v>55000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>181800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44024,6 +44024,41 @@
         <v>181800</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>92700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44059,6 +44059,76 @@
         <v>92700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>106100</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>129000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44129,6 +44129,41 @@
         <v>129000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>218700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44164,6 +44164,41 @@
         <v>218700</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>310000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2340"/>
+  <dimension ref="A1:I2341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82804,6 +82804,41 @@
         <v>310000</v>
       </c>
     </row>
+    <row r="2341">
+      <c r="A2341" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D2341" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E2341" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2341" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2341" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2341" t="n">
+        <v>246300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2341"/>
+  <dimension ref="A1:I2342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82839,6 +82839,41 @@
         <v>246300</v>
       </c>
     </row>
+    <row r="2342">
+      <c r="A2342" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D2342" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E2342" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2342" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2342" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2342" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2342" t="n">
+        <v>377500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2342"/>
+  <dimension ref="A1:I2343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82874,6 +82874,41 @@
         <v>377500</v>
       </c>
     </row>
+    <row r="2343">
+      <c r="A2343" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D2343" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E2343" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2343" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2343" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2343" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2343" t="n">
+        <v>80700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2343"/>
+  <dimension ref="A1:I2344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82909,6 +82909,41 @@
         <v>80700</v>
       </c>
     </row>
+    <row r="2344">
+      <c r="A2344" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D2344" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E2344" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2344" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2344" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2344" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2344" t="n">
+        <v>417600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2344"/>
+  <dimension ref="A1:I2345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82944,6 +82944,41 @@
         <v>417600</v>
       </c>
     </row>
+    <row r="2345">
+      <c r="A2345" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2345" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D2345" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E2345" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2345" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2345" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2345" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2345" t="n">
+        <v>39000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2345"/>
+  <dimension ref="A1:I2346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82979,6 +82979,41 @@
         <v>39000</v>
       </c>
     </row>
+    <row r="2346">
+      <c r="A2346" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2346" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D2346" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E2346" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2346" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2346" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2346" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2346" t="n">
+        <v>78200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2346"/>
+  <dimension ref="A1:I2347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83014,6 +83014,41 @@
         <v>78200</v>
       </c>
     </row>
+    <row r="2347">
+      <c r="A2347" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D2347" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E2347" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2347" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2347" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2347" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2347" t="n">
+        <v>36000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2347"/>
+  <dimension ref="A1:I2348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83049,6 +83049,43 @@
         <v>36000</v>
       </c>
     </row>
+    <row r="2348">
+      <c r="A2348" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D2348" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E2348" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2348" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2348" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2348" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2348" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2348"/>
+  <dimension ref="A1:I2349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83086,6 +83086,41 @@
         </is>
       </c>
     </row>
+    <row r="2349">
+      <c r="A2349" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D2349" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E2349" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2349" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2349" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2349" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2349" t="n">
+        <v>23600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2349"/>
+  <dimension ref="A1:I2350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83121,6 +83121,41 @@
         <v>23600</v>
       </c>
     </row>
+    <row r="2350">
+      <c r="A2350" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2350" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D2350" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E2350" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2350" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2350" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2350" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2350" t="n">
+        <v>36000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2350"/>
+  <dimension ref="A1:I2351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83156,6 +83156,41 @@
         <v>36000</v>
       </c>
     </row>
+    <row r="2351">
+      <c r="A2351" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2351" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D2351" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E2351" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2351" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2351" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2351" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2351" t="n">
+        <v>31000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2351"/>
+  <dimension ref="A1:I2352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83191,6 +83191,41 @@
         <v>31000</v>
       </c>
     </row>
+    <row r="2352">
+      <c r="A2352" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2352" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D2352" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E2352" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F2352" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G2352" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H2352" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I2352" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2352"/>
+  <dimension ref="A1:I2353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83226,6 +83226,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="2353">
+      <c r="A2353" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D2353" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E2353" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F2353" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2353" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H2353" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2353" t="n">
+        <v>59200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2353"/>
+  <dimension ref="A1:I2354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83261,6 +83261,41 @@
         <v>59200</v>
       </c>
     </row>
+    <row r="2354">
+      <c r="A2354" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D2354" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E2354" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F2354" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2354" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H2354" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2354" t="n">
+        <v>43100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5959.xlsx
+++ b/data/5959.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2354"/>
+  <dimension ref="A1:I2355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83296,6 +83296,41 @@
         <v>43100</v>
       </c>
     </row>
+    <row r="2355">
+      <c r="A2355" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="D2355" t="inlineStr">
+        <is>
+          <t>AMVERTON</t>
+        </is>
+      </c>
+      <c r="E2355" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F2355" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2355" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H2355" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2355" t="n">
+        <v>42000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
